--- a/users.xlsx
+++ b/users.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -633,6 +633,31 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>omar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mahmoud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>oo@gg.com</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01020955602</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -658,6 +658,144 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quraa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>omarmahmoudquraa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01020955602</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>oo@kk.com</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01020955602</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -708,94 +708,31 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>most@mos.com</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>123</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01112233344</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
